--- a/public/excel/plantilla.xlsx
+++ b/public/excel/plantilla.xlsx
@@ -9,85 +9,70 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="b9yzdaGBe1Rt+KdyC9i3QvtWRK11rLuYqklf7ESib3Q="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="vAppxzBeaLLUmp7mZEo/APp3S1ihay7/oPYRuCWI8hE="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>CATEGORIA</t>
   </si>
   <si>
-    <t>AÑO 1</t>
+    <t>AÑO 2013</t>
   </si>
   <si>
-    <t>AÑO 2</t>
+    <t>AÑO 2014</t>
   </si>
   <si>
-    <t>AÑO 3</t>
+    <t>AÑO 2015</t>
   </si>
   <si>
-    <t>Activos</t>
+    <t>AÑO 2016</t>
   </si>
   <si>
-    <t>Inversiones Temporales</t>
+    <t>AÑO 2017</t>
   </si>
   <si>
-    <t>C x C Clientes</t>
+    <t>TOTAL ACTIVOS</t>
   </si>
   <si>
-    <t>Otros Deudores</t>
+    <t>SUBTOTAL  Activos Corrientes</t>
   </si>
   <si>
-    <t>Inventarios</t>
+    <t>Ingrese nombre</t>
   </si>
   <si>
-    <t>SUBTOTAL  [NOMBRE]</t>
+    <t>Puede añadir mas Filas si es necesario o borrar</t>
   </si>
   <si>
-    <t>Terrenos</t>
+    <t>SUBTOTAL Activos No Corrientes</t>
   </si>
   <si>
-    <t>Construcciones en Curso</t>
+    <t>TOTAL PASIVOS Y PATRIMONIO</t>
   </si>
   <si>
-    <t>Edificios</t>
+    <t>SUBTOTAL Pasivos a Corto Plazo</t>
   </si>
   <si>
-    <t>Maquinaria y Equipo</t>
+    <t>SUBTOTAL Pasivos a Largo Plazo</t>
   </si>
   <si>
-    <t>Vehiculo</t>
+    <t>SUBTOTAL PATRIMONIO</t>
   </si>
   <si>
-    <t>Menos Depreciacion Acumulada</t>
-  </si>
-  <si>
-    <t>Inversiones Permanentes</t>
-  </si>
-  <si>
-    <t>Activos Diferidos</t>
-  </si>
-  <si>
-    <t>Deudores a Largo Plazo</t>
-  </si>
-  <si>
-    <t>Otros Activos</t>
-  </si>
-  <si>
-    <t>Valorizaciones</t>
-  </si>
-  <si>
-    <t>TOTAL</t>
+    <t>GRAN TOTAL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00[$Bs]"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="12.0"/>
@@ -102,14 +87,13 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <b/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="13.0"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,30 +111,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF1C4587"/>
-        <bgColor rgb="FF1C4587"/>
+        <fgColor rgb="FFD9F1F3"/>
+        <bgColor rgb="FFD9F1F3"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,112 +379,278 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="3" t="s">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="5" t="s">
         <v>9</v>
       </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
+      <c r="A21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" ref="B26:F26" si="1">B2+B13</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="27" ht="15.75" customHeight="1"/>
     <row r="28" ht="15.75" customHeight="1"/>
     <row r="29" ht="15.75" customHeight="1"/>
@@ -1461,7 +1624,6 @@
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
     <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
